--- a/eclass_codes.xlsx
+++ b/eclass_codes.xlsx
@@ -434,11 +434,6 @@
         </is>
       </c>
       <c r="C3" s="6" t="n"/>
-      <c r="D3" s="0" t="inlineStr">
-        <is>
-          <t>No records</t>
-        </is>
-      </c>
       <c r="E3" s="3" t="n">
         <v>23010102</v>
       </c>
@@ -453,11 +448,6 @@
         </is>
       </c>
       <c r="C4" s="6" t="n"/>
-      <c r="D4" s="0" t="inlineStr">
-        <is>
-          <t>No records</t>
-        </is>
-      </c>
       <c r="E4" s="3" t="n">
         <v>23010103</v>
       </c>
